--- a/inst/extdata/example_excel_template_w_macro.xlsx
+++ b/inst/extdata/example_excel_template_w_macro.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25003"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aarhusuniversitet-my.sharepoint.com/personal/au530301_uni_au_dk/Documents/Vedhæftede filer/THJ LAB/Projects/seqNdisplayR/seqNdisplayR/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{32FFD7A7-56D2-E448-BD51-07E328A4E9D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7257E3F1-E9EA-A04A-BB6C-293729F09501}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="8_{32FFD7A7-56D2-E448-BD51-07E328A4E9D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6EB1E7EB-FD85-504A-86A8-4FA6EF272B8B}"/>
   <bookViews>
-    <workbookView xWindow="200" yWindow="460" windowWidth="35260" windowHeight="21940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="200" yWindow="460" windowWidth="35260" windowHeight="21940" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SAMPLES" sheetId="1" r:id="rId1"/>
@@ -20,25 +20,46 @@
     <sheet name="README" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">GLOBAL_OPTIONS!$A$1:$C$73</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">GLOBAL_OPTIONS!$A$1:$C$72</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="235">
   <si>
     <t>fill_color</t>
   </si>
@@ -740,13 +761,16 @@
   </si>
   <si>
     <t>… (infinity number of subsamples are allowed, different levels are subgroupings are possible for different seqtypes and subsample groups, leave cells empty if not relevant</t>
+  </si>
+  <si>
+    <t>group_autoscale</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1172,19 +1196,19 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:K59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="90.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="89.875" customWidth="1"/>
+    <col min="3" max="3" width="90.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="89.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1219,10 +1243,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="6"/>
-      <c r="B2" t="e">
-        <f ca="1">getRGB1(A2)</f>
+      <c r="B2" t="e" cm="1">
+        <f t="array" aca="1" ref="B2" ca="1">getRGB1(A2)</f>
         <v>#NAME?</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -1250,7 +1274,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="6"/>
       <c r="B3" t="s">
         <v>18</v>
@@ -1265,7 +1289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="6"/>
       <c r="B4" t="s">
         <v>18</v>
@@ -1280,7 +1304,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="6"/>
       <c r="B5" t="s">
         <v>18</v>
@@ -1295,7 +1319,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="6"/>
       <c r="B6" t="s">
         <v>18</v>
@@ -1310,7 +1334,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
       <c r="B7" t="s">
         <v>18</v>
@@ -1325,7 +1349,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="7"/>
       <c r="B8" t="s">
         <v>25</v>
@@ -1343,7 +1367,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="7"/>
       <c r="B9" t="s">
         <v>25</v>
@@ -1358,7 +1382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="7"/>
       <c r="B10" t="s">
         <v>25</v>
@@ -1373,7 +1397,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="7"/>
       <c r="B11" t="s">
         <v>25</v>
@@ -1388,7 +1412,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="7"/>
       <c r="B12" t="s">
         <v>25</v>
@@ -1403,7 +1427,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="7"/>
       <c r="B13" t="s">
         <v>25</v>
@@ -1418,7 +1442,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="6"/>
       <c r="B14" t="s">
         <v>18</v>
@@ -1439,7 +1463,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="6"/>
       <c r="B15" t="s">
         <v>18</v>
@@ -1454,7 +1478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="6"/>
       <c r="B16" t="s">
         <v>18</v>
@@ -1469,7 +1493,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="6"/>
       <c r="B17" t="s">
         <v>18</v>
@@ -1484,7 +1508,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="7"/>
       <c r="B18" t="s">
         <v>25</v>
@@ -1502,7 +1526,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="7"/>
       <c r="B19" t="s">
         <v>25</v>
@@ -1517,7 +1541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="7"/>
       <c r="B20" t="s">
         <v>25</v>
@@ -1532,7 +1556,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="7"/>
       <c r="B21" t="s">
         <v>25</v>
@@ -1547,7 +1571,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="6"/>
       <c r="B22" t="s">
         <v>18</v>
@@ -1571,7 +1595,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="6"/>
       <c r="B23" t="s">
         <v>18</v>
@@ -1586,7 +1610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="6"/>
       <c r="B24" t="s">
         <v>18</v>
@@ -1601,7 +1625,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="6"/>
       <c r="B25" t="s">
         <v>18</v>
@@ -1616,7 +1640,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="6"/>
       <c r="B26" t="s">
         <v>18</v>
@@ -1631,7 +1655,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="6"/>
       <c r="B27" t="s">
         <v>18</v>
@@ -1646,7 +1670,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="7"/>
       <c r="B28" t="s">
         <v>25</v>
@@ -1664,7 +1688,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="7"/>
       <c r="B29" t="s">
         <v>25</v>
@@ -1679,7 +1703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="7"/>
       <c r="B30" t="s">
         <v>25</v>
@@ -1694,7 +1718,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="7"/>
       <c r="B31" t="s">
         <v>25</v>
@@ -1709,7 +1733,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="7"/>
       <c r="B32" t="s">
         <v>25</v>
@@ -1724,7 +1748,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="7"/>
       <c r="B33" t="s">
         <v>25</v>
@@ -1739,7 +1763,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="6"/>
       <c r="B34" t="s">
         <v>18</v>
@@ -1760,7 +1784,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="6"/>
       <c r="B35" t="s">
         <v>18</v>
@@ -1775,7 +1799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="6"/>
       <c r="B36" t="s">
         <v>18</v>
@@ -1790,7 +1814,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="6"/>
       <c r="B37" t="s">
         <v>18</v>
@@ -1805,7 +1829,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="7"/>
       <c r="B38" t="s">
         <v>25</v>
@@ -1823,7 +1847,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="7"/>
       <c r="B39" t="s">
         <v>25</v>
@@ -1838,7 +1862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="7"/>
       <c r="B40" t="s">
         <v>25</v>
@@ -1853,7 +1877,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="7"/>
       <c r="B41" t="s">
         <v>25</v>
@@ -1868,7 +1892,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="6"/>
       <c r="B42" t="s">
         <v>18</v>
@@ -1892,7 +1916,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="6"/>
       <c r="B43" t="s">
         <v>18</v>
@@ -1907,7 +1931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="6"/>
       <c r="B44" t="s">
         <v>18</v>
@@ -1922,7 +1946,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="6"/>
       <c r="B45" t="s">
         <v>18</v>
@@ -1937,7 +1961,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="7"/>
       <c r="B46" t="s">
         <v>25</v>
@@ -1955,7 +1979,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="7"/>
       <c r="B47" t="s">
         <v>25</v>
@@ -1970,7 +1994,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="7"/>
       <c r="B48" t="s">
         <v>25</v>
@@ -1985,7 +2009,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="7"/>
       <c r="B49" t="s">
         <v>25</v>
@@ -2000,7 +2024,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="6"/>
       <c r="B50" t="s">
         <v>18</v>
@@ -2024,7 +2048,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="6"/>
       <c r="B51" t="s">
         <v>18</v>
@@ -2039,7 +2063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="6"/>
       <c r="B52" t="s">
         <v>18</v>
@@ -2054,7 +2078,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="6"/>
       <c r="B53" t="s">
         <v>18</v>
@@ -2069,7 +2093,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="7"/>
       <c r="B54" t="s">
         <v>25</v>
@@ -2087,7 +2111,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="7"/>
       <c r="B55" t="s">
         <v>25</v>
@@ -2102,7 +2126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="7"/>
       <c r="B56" t="s">
         <v>25</v>
@@ -2117,7 +2141,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="7"/>
       <c r="B57" t="s">
         <v>25</v>
@@ -2132,7 +2156,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="8"/>
       <c r="B58" t="s">
         <v>81</v>
@@ -2156,7 +2180,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="8"/>
       <c r="B59" t="s">
         <v>81</v>
@@ -2186,18 +2210,19 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1C8C505-D57F-9C4B-B17A-20D6567392D2}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="11" width="20.875" customWidth="1"/>
+    <col min="1" max="11" width="20.83203125" customWidth="1"/>
+    <col min="12" max="12" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>6</v>
       </c>
@@ -2231,8 +2256,11 @@
       <c r="K1" s="4" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="4" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -2266,8 +2294,11 @@
       <c r="K2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="L2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>63</v>
       </c>
@@ -2301,8 +2332,11 @@
       <c r="K3" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="L3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>73</v>
       </c>
@@ -2336,8 +2370,11 @@
       <c r="K4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="L4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>84</v>
       </c>
@@ -2370,6 +2407,9 @@
       </c>
       <c r="K5" t="b">
         <v>0</v>
+      </c>
+      <c r="L5" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2380,24 +2420,24 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.5" customWidth="1"/>
     <col min="2" max="2" width="99" customWidth="1"/>
-    <col min="3" max="3" width="23.625" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" customWidth="1"/>
     <col min="4" max="4" width="24" customWidth="1"/>
-    <col min="5" max="5" width="20.375" customWidth="1"/>
-    <col min="6" max="6" width="21.125" customWidth="1"/>
+    <col min="5" max="5" width="20.33203125" customWidth="1"/>
+    <col min="6" max="6" width="21.1640625" customWidth="1"/>
     <col min="7" max="7" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>100</v>
       </c>
@@ -2419,8 +2459,11 @@
       <c r="G1" s="13" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="13" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>107</v>
       </c>
@@ -2442,8 +2485,11 @@
       <c r="G2" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>110</v>
       </c>
@@ -2465,8 +2511,11 @@
       <c r="G3" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>112</v>
       </c>
@@ -2487,6 +2536,9 @@
       </c>
       <c r="G4" t="s">
         <v>109</v>
+      </c>
+      <c r="H4" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -2502,18 +2554,20 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:C71"/>
+  <dimension ref="A1:C70"/>
   <sheetViews>
-    <sheetView zoomScale="101" workbookViewId="0"/>
+    <sheetView zoomScale="101" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.375" customWidth="1"/>
+    <col min="1" max="1" width="28.33203125" customWidth="1"/>
     <col min="2" max="2" width="23" style="3" customWidth="1"/>
     <col min="3" max="3" width="76" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>114</v>
       </c>
@@ -2524,7 +2578,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>117</v>
       </c>
@@ -2532,7 +2586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>118</v>
       </c>
@@ -2540,553 +2594,545 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>106</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>126</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>128</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>130</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>132</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>133</v>
+      </c>
+      <c r="B12" s="3">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>134</v>
+      </c>
+      <c r="B13" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>135</v>
+      </c>
+      <c r="B14" s="11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>136</v>
+      </c>
+      <c r="B15" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>137</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>139</v>
+      </c>
+      <c r="B17" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>140</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>121</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>123</v>
-      </c>
-      <c r="B6" s="3" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>141</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>124</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>106</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>126</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>128</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>130</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
-        <v>132</v>
-      </c>
-      <c r="B12" s="3" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>142</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>144</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C21" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>147</v>
+      </c>
+      <c r="B22" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>148</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>133</v>
-      </c>
-      <c r="B13" s="3">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>134</v>
-      </c>
-      <c r="B14" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>135</v>
-      </c>
-      <c r="B15" s="11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
-        <v>136</v>
-      </c>
-      <c r="B16" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
-        <v>137</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>139</v>
-      </c>
-      <c r="B18" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>140</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>141</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
-        <v>142</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>144</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="C22" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
-        <v>147</v>
-      </c>
-      <c r="B23" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B26" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>152</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
-      <c r="A27" t="s">
-        <v>151</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="s">
-        <v>152</v>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
+        <v>153</v>
       </c>
       <c r="B28" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>154</v>
+      </c>
+      <c r="B29" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>155</v>
+      </c>
+      <c r="B30" s="3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" t="s">
-        <v>154</v>
-      </c>
-      <c r="B30" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B31" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>158</v>
+      </c>
+      <c r="B32" s="3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
-      <c r="A32" t="s">
-        <v>156</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="34" spans="1:3">
+      <c r="C33" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>159</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C34" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>161</v>
+      </c>
+      <c r="B34" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B35" s="3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B36" s="3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B37" s="3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>164</v>
-      </c>
-      <c r="B38" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>165</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>165</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>166</v>
+      </c>
+      <c r="B39" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B40" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B41" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>168</v>
-      </c>
-      <c r="B42" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
+        <v>169</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>170</v>
-      </c>
-      <c r="B44" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>173</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>175</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>176</v>
+      </c>
+      <c r="B47" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>177</v>
+      </c>
+      <c r="B48" s="3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
-      <c r="A45" t="s">
-        <v>171</v>
-      </c>
-      <c r="B45" s="12" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" t="s">
-        <v>173</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" t="s">
-        <v>175</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" t="s">
-        <v>176</v>
-      </c>
-      <c r="B48" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>180</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
+        <v>181</v>
+      </c>
+      <c r="B52" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B53" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>182</v>
-      </c>
-      <c r="B54" s="3" t="b">
+        <v>183</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>184</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>186</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>187</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>188</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>190</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>192</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>193</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>195</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>196</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>198</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>200</v>
+      </c>
+      <c r="B65" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>201</v>
+      </c>
+      <c r="B66" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
-      <c r="A55" t="s">
-        <v>183</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" t="s">
-        <v>184</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" t="s">
-        <v>186</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" t="s">
-        <v>187</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" t="s">
-        <v>188</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60" t="s">
-        <v>190</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" t="s">
-        <v>192</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62" t="s">
-        <v>193</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63" t="s">
-        <v>195</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
-      <c r="A64" t="s">
-        <v>196</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65" t="s">
-        <v>198</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" t="s">
-        <v>200</v>
-      </c>
-      <c r="B66" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>201</v>
-      </c>
-      <c r="B67" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>202</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>204</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>206</v>
+      </c>
+      <c r="B69" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>206</v>
-      </c>
-      <c r="B70" s="3">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="A71" t="s">
         <v>207</v>
       </c>
-      <c r="B71" s="3" t="s">
+      <c r="B70" s="3" t="s">
         <v>208</v>
       </c>
     </row>
@@ -3098,31 +3144,31 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="4" width="16.125" customWidth="1"/>
+    <col min="3" max="4" width="16.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>212</v>
       </c>
@@ -3130,12 +3176,12 @@
         <v>213</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
         <v>215</v>
       </c>
@@ -3146,7 +3192,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D8" t="s">
         <v>218</v>
       </c>
@@ -3154,7 +3200,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D9" t="s">
         <v>220</v>
       </c>
@@ -3162,7 +3208,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D10" t="s">
         <v>4</v>
       </c>
@@ -3170,7 +3216,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D11" t="s">
         <v>5</v>
       </c>
@@ -3178,7 +3224,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D12" t="s">
         <v>224</v>
       </c>
@@ -3186,7 +3232,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
         <v>226</v>
       </c>
@@ -3194,7 +3240,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D14" t="s">
         <v>228</v>
       </c>
@@ -3202,7 +3248,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D15" t="s">
         <v>230</v>
       </c>
@@ -3210,7 +3256,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D16" t="s">
         <v>232</v>
       </c>
@@ -3218,8 +3264,6 @@
         <v>233</v>
       </c>
     </row>
-    <row r="40" customFormat="1"/>
-    <row r="41" customFormat="1"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
